--- a/CabBills/ExcelFiles/Ola_GST_OnlyFare.xlsx
+++ b/CabBills/ExcelFiles/Ola_GST_OnlyFare.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\TNow Documents\CabBills\CabBills\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\TNow Documents\CabBills\CabBills\ExcelFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -13,9 +13,10 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="survey labour" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
-    <sheet name="Sheet1 (2)" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet2" sheetId="5" r:id="rId2"/>
+    <sheet name="survey labour" sheetId="2" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId4"/>
+    <sheet name="Sheet1 (2)" sheetId="4" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$K$1</definedName>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="48">
   <si>
     <t>Date</t>
   </si>
@@ -138,7 +139,37 @@
     <t>Unnamed Road, Peeranchuruvu, Hyderabad, Telangana 500086, India</t>
   </si>
   <si>
-    <t>2-17, Prabhat Nagar Colony, Kothapet, Hyderabad, Telangana 500060, India</t>
+    <t>Prime Sedan - Grey Verito</t>
+  </si>
+  <si>
+    <t>NarsimhaS.jpg</t>
+  </si>
+  <si>
+    <t>DriverPhoto</t>
+  </si>
+  <si>
+    <t>DriverName</t>
+  </si>
+  <si>
+    <t>CarImage</t>
+  </si>
+  <si>
+    <t>CarType</t>
+  </si>
+  <si>
+    <t>Sedan.png</t>
+  </si>
+  <si>
+    <t>Narsimha S</t>
+  </si>
+  <si>
+    <t>Test Name</t>
+  </si>
+  <si>
+    <t>Indica.png</t>
+  </si>
+  <si>
+    <t>White Indica</t>
   </si>
 </sst>
 </file>
@@ -162,7 +193,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -172,6 +203,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -188,7 +225,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -219,11 +256,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="18" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="22" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="18" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -529,28 +569,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:O5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17" customWidth="1"/>
+    <col min="1" max="1" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="14.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.28515625" customWidth="1"/>
+    <col min="5" max="5" width="23.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="6" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8.7109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9.5703125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="30.85546875" customWidth="1"/>
-    <col min="11" max="11" width="36.140625" customWidth="1"/>
+    <col min="10" max="10" width="30.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="33.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="28.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="24.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -584,40 +627,205 @@
       <c r="K1" s="2" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="L1" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="16">
-        <v>43031.443055555559</v>
+        <v>43213.366666666669</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="C2" s="17" t="s">
         <v>18</v>
       </c>
       <c r="D2" s="17">
-        <v>382</v>
+        <v>187</v>
       </c>
       <c r="E2" s="17">
         <v>30</v>
       </c>
       <c r="F2" s="17">
-        <v>34.770000000000003</v>
+        <v>18.7</v>
       </c>
       <c r="G2" s="17">
-        <v>447</v>
+        <v>236</v>
       </c>
       <c r="H2" s="18">
-        <v>0.34791666666666665</v>
+        <v>0.33402777777777781</v>
       </c>
       <c r="I2" s="18">
-        <v>0.3972222222222222</v>
+        <v>0.35694444444444445</v>
       </c>
       <c r="J2" s="19" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K2" s="19" t="s">
         <v>33</v>
+      </c>
+      <c r="L2" t="s">
+        <v>38</v>
+      </c>
+      <c r="M2" t="s">
+        <v>44</v>
+      </c>
+      <c r="N2" t="s">
+        <v>43</v>
+      </c>
+      <c r="O2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+      <c r="A3" s="16">
+        <v>43214.39166666667</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="17">
+        <v>186</v>
+      </c>
+      <c r="E3" s="17">
+        <v>30</v>
+      </c>
+      <c r="F3" s="17">
+        <v>18.600000000000001</v>
+      </c>
+      <c r="G3" s="17">
+        <v>235</v>
+      </c>
+      <c r="H3" s="18">
+        <v>0.35486111111111113</v>
+      </c>
+      <c r="I3" s="18">
+        <v>0.37777777777777777</v>
+      </c>
+      <c r="J3" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="K3" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="L3" t="s">
+        <v>38</v>
+      </c>
+      <c r="M3" t="s">
+        <v>45</v>
+      </c>
+      <c r="N3" t="s">
+        <v>46</v>
+      </c>
+      <c r="O3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4" s="16">
+        <v>43215.387499999997</v>
+      </c>
+      <c r="B4" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="17">
+        <v>187</v>
+      </c>
+      <c r="E4" s="17">
+        <v>30</v>
+      </c>
+      <c r="F4" s="17">
+        <v>18.7</v>
+      </c>
+      <c r="G4" s="17">
+        <v>236</v>
+      </c>
+      <c r="H4" s="18">
+        <v>0.35833333333333334</v>
+      </c>
+      <c r="I4" s="18">
+        <v>0.37986111111111115</v>
+      </c>
+      <c r="J4" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="K4" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="L4" t="s">
+        <v>38</v>
+      </c>
+      <c r="M4" t="s">
+        <v>44</v>
+      </c>
+      <c r="N4" t="s">
+        <v>43</v>
+      </c>
+      <c r="O4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+      <c r="A5" s="16">
+        <v>43215.277083333334</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5" s="17">
+        <v>189</v>
+      </c>
+      <c r="E5" s="17">
+        <v>30</v>
+      </c>
+      <c r="F5" s="17">
+        <v>18.899999999999999</v>
+      </c>
+      <c r="G5" s="17">
+        <v>238</v>
+      </c>
+      <c r="H5" s="18">
+        <v>0.75138888888888899</v>
+      </c>
+      <c r="I5" s="18">
+        <v>0.77361111111111114</v>
+      </c>
+      <c r="J5" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="K5" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="L5" t="s">
+        <v>38</v>
+      </c>
+      <c r="M5" t="s">
+        <v>45</v>
+      </c>
+      <c r="N5" t="s">
+        <v>46</v>
+      </c>
+      <c r="O5" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -627,6 +835,70 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="A3:D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1" s="20" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R19"/>
   <sheetViews>
@@ -1078,7 +1350,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D14"/>
   <sheetViews>
@@ -1337,12 +1609,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:K7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:K7"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
